--- a/src/data/profiles/xlsx/bluff/profile 33-3 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 33-3 graph.xlsx
@@ -21886,11 +21886,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68520852"/>
-        <c:axId val="33789467"/>
+        <c:axId val="4901739"/>
+        <c:axId val="4172376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68520852"/>
+        <c:axId val="4901739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21925,12 +21925,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33789467"/>
+        <c:crossAx val="4172376"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33789467"/>
+        <c:axId val="4172376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21974,7 +21974,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68520852"/>
+        <c:crossAx val="4901739"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
